--- a/REGULAR/DSWD/DIMAPILIS, MA.TRINIDAD S..xlsx
+++ b/REGULAR/DSWD/DIMAPILIS, MA.TRINIDAD S..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90270C0-1EDE-422C-9D14-4A5D930AC6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="352">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1088,12 +1087,15 @@
   </si>
   <si>
     <t>FORWARDED BALANCE</t>
+  </si>
+  <si>
+    <t>10/9,10,12,13/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1517,6 +1519,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1552,15 +1563,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2011,7 +2013,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2056,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2120,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2180,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2246,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2309,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2407,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2466,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2531,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2574,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2649,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2835,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,7 +2901,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2959,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,7 +3025,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,7 +3081,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3156,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3199,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3265,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3321,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3419,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3480,7 +3482,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,7 +3531,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3546,26 +3548,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K463" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K463" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K469" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K469"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3577,13 +3579,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3592,14 +3594,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3903,7 +3905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3913,7 +3915,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3921,91 +3923,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K463"/>
+  <dimension ref="A2:K469"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" activePane="bottomLeft"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="4785" topLeftCell="A452" activePane="bottomLeft"/>
+      <selection activeCell="E467" sqref="E467"/>
+      <selection pane="bottomLeft" activeCell="H468" sqref="H468"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="72"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="75"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4013,7 +4015,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4026,24 +4028,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4078,7 +4080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4087,7 +4089,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
+        <v>61.558999999999912</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4097,16 +4099,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>347.87</v>
+        <v>352.12</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="79" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="13">
         <v>21.933</v>
       </c>
@@ -4121,7 +4123,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>238</v>
       </c>
@@ -4139,7 +4141,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>35796</v>
       </c>
@@ -4159,7 +4161,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>35827</v>
@@ -4180,7 +4182,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A19" si="0">EDATE(A13,1)</f>
         <v>35855</v>
@@ -4201,7 +4203,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>35886</v>
@@ -4222,7 +4224,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>35916</v>
@@ -4243,7 +4245,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>35947</v>
@@ -4268,7 +4270,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>35977</v>
@@ -4293,7 +4295,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -4320,7 +4322,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>241</v>
@@ -4337,7 +4339,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f>EDATE(A19,1)</f>
         <v>36039</v>
@@ -4364,7 +4366,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>244</v>
@@ -4383,7 +4385,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>245</v>
@@ -4400,7 +4402,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f>EDATE(A21,1)</f>
         <v>36069</v>
@@ -4427,7 +4429,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>247</v>
@@ -4444,7 +4446,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>EDATE(A24,1)</f>
         <v>36100</v>
@@ -4471,7 +4473,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>248</v>
@@ -4488,7 +4490,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f>EDATE(A26,1)</f>
         <v>36130</v>
@@ -4513,7 +4515,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>249</v>
@@ -4533,7 +4535,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>250</v>
       </c>
@@ -4551,7 +4553,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f>EDATE(A28,1)</f>
         <v>36161</v>
@@ -4576,7 +4578,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4593,7 +4595,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f>EDATE(A31,1)</f>
         <v>36192</v>
@@ -4618,7 +4620,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>54</v>
@@ -4635,7 +4637,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f>EDATE(A33,1)</f>
         <v>36220</v>
@@ -4662,7 +4664,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>255</v>
@@ -4679,7 +4681,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A35,1)</f>
         <v>36251</v>
@@ -4704,7 +4706,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" ref="A38:A47" si="1">EDATE(A37,1)</f>
         <v>36281</v>
@@ -4729,7 +4731,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>258</v>
@@ -4746,7 +4748,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>54</v>
@@ -4763,7 +4765,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f>EDATE(A38,1)</f>
         <v>36312</v>
@@ -4790,7 +4792,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>261</v>
@@ -4807,7 +4809,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f>EDATE(A41,1)</f>
         <v>36342</v>
@@ -4832,7 +4834,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="1"/>
         <v>36373</v>
@@ -4857,7 +4859,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4882,7 +4884,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4907,7 +4909,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4932,7 +4934,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f>EDATE(A47,1)</f>
         <v>36495</v>
@@ -4957,7 +4959,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>266</v>
       </c>
@@ -4975,7 +4977,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f>EDATE(A48,1)</f>
         <v>36526</v>
@@ -5000,7 +5002,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f>EDATE(A50,1)</f>
         <v>36557</v>
@@ -5025,7 +5027,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" ref="A52:A63" si="2">EDATE(A51,1)</f>
         <v>36586</v>
@@ -5052,7 +5054,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>81</v>
@@ -5069,7 +5071,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f>EDATE(A52,1)</f>
         <v>36617</v>
@@ -5096,7 +5098,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>54</v>
@@ -5113,7 +5115,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -5130,7 +5132,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>249</v>
@@ -5147,7 +5149,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f>EDATE(A54,1)</f>
         <v>36647</v>
@@ -5172,7 +5174,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="2"/>
         <v>36678</v>
@@ -5197,7 +5199,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -5222,7 +5224,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -5249,7 +5251,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -5274,7 +5276,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="2"/>
         <v>36800</v>
@@ -5301,7 +5303,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>278</v>
@@ -5318,7 +5320,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f>EDATE(A63,1)</f>
         <v>36831</v>
@@ -5343,7 +5345,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f>EDATE(A65,1)</f>
         <v>36861</v>
@@ -5368,7 +5370,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>104</v>
@@ -5390,7 +5392,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>61</v>
@@ -5410,7 +5412,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>283</v>
       </c>
@@ -5428,7 +5430,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EDATE(A66,1)</f>
         <v>36892</v>
@@ -5453,7 +5455,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f>EDATE(A70,1)</f>
         <v>36923</v>
@@ -5478,7 +5480,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" ref="A72:A82" si="3">EDATE(A71,1)</f>
         <v>36951</v>
@@ -5505,7 +5507,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>220</v>
@@ -5524,7 +5526,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f>EDATE(A72,1)</f>
         <v>36982</v>
@@ -5549,7 +5551,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -5576,7 +5578,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>54</v>
@@ -5593,7 +5595,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>104</v>
@@ -5612,7 +5614,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>54</v>
@@ -5629,7 +5631,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>290</v>
@@ -5646,7 +5648,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f>EDATE(A75,1)</f>
         <v>37043</v>
@@ -5671,7 +5673,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -5696,7 +5698,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="3"/>
         <v>37104</v>
@@ -5721,7 +5723,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f>EDATE(A82,1)</f>
         <v>37135</v>
@@ -5748,7 +5750,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>296</v>
@@ -5765,7 +5767,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f>EDATE(A83,1)</f>
         <v>37165</v>
@@ -5792,7 +5794,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>297</v>
@@ -5809,7 +5811,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A85,1)</f>
         <v>37196</v>
@@ -5836,7 +5838,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>94</v>
@@ -5855,7 +5857,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>54</v>
@@ -5872,7 +5874,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A87,1)</f>
         <v>37226</v>
@@ -5897,7 +5899,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>302</v>
@@ -5914,7 +5916,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
         <v>301</v>
       </c>
@@ -5932,7 +5934,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f>EDATE(A90,1)</f>
         <v>37257</v>
@@ -5959,7 +5961,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>303</v>
@@ -5976,7 +5978,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>37288</v>
@@ -6001,7 +6003,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" ref="A96:A110" si="4">EDATE(A95,1)</f>
         <v>37316</v>
@@ -6028,7 +6030,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>54</v>
@@ -6045,7 +6047,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="20" t="s">
         <v>54</v>
@@ -6062,7 +6064,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>257</v>
@@ -6079,7 +6081,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A96,1)</f>
         <v>37347</v>
@@ -6100,7 +6102,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f t="shared" si="4"/>
         <v>37377</v>
@@ -6125,7 +6127,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f t="shared" si="4"/>
         <v>37408</v>
@@ -6150,7 +6152,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f t="shared" si="4"/>
         <v>37438</v>
@@ -6175,7 +6177,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>104</v>
@@ -6194,7 +6196,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f>EDATE(A103,1)</f>
         <v>37469</v>
@@ -6221,7 +6223,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>104</v>
@@ -6240,7 +6242,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f>EDATE(A105,1)</f>
         <v>37500</v>
@@ -6261,7 +6263,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="4"/>
         <v>37530</v>
@@ -6288,7 +6290,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="4"/>
         <v>37561</v>
@@ -6309,7 +6311,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="4"/>
         <v>37591</v>
@@ -6330,7 +6332,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
         <v>313</v>
       </c>
@@ -6348,7 +6350,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>37622</v>
@@ -6375,7 +6377,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f>EDATE(A112,1)</f>
         <v>37653</v>
@@ -6402,7 +6404,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" ref="A114:A122" si="5">EDATE(A113,1)</f>
         <v>37681</v>
@@ -6429,7 +6431,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -6450,7 +6452,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -6475,7 +6477,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -6496,7 +6498,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -6517,7 +6519,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -6538,7 +6540,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -6563,7 +6565,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -6588,7 +6590,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -6613,7 +6615,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f>EDATE(A122,1)</f>
         <v>37956</v>
@@ -6638,7 +6640,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="47" t="s">
         <v>319</v>
       </c>
@@ -6656,7 +6658,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A123,1)</f>
         <v>37987</v>
@@ -6681,7 +6683,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <f>EDATE(A125,1)</f>
         <v>38018</v>
@@ -6706,7 +6708,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f t="shared" ref="A127:A134" si="6">EDATE(A126,1)</f>
         <v>38047</v>
@@ -6731,7 +6733,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f t="shared" si="6"/>
         <v>38078</v>
@@ -6756,7 +6758,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="6"/>
         <v>38108</v>
@@ -6781,7 +6783,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="6"/>
         <v>38139</v>
@@ -6806,7 +6808,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="6"/>
         <v>38169</v>
@@ -6831,7 +6833,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" si="6"/>
         <v>38200</v>
@@ -6856,7 +6858,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -6881,7 +6883,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="55">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -6908,7 +6910,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="58"/>
       <c r="B135" s="61" t="s">
         <v>54</v>
@@ -6925,7 +6927,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="58"/>
       <c r="B136" s="11" t="s">
         <v>189</v>
@@ -6942,7 +6944,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="54"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="58">
         <f>EDATE(A134,1)</f>
         <v>38292</v>
@@ -6969,7 +6971,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="60"/>
       <c r="B138" s="61" t="s">
         <v>331</v>
@@ -6988,7 +6990,7 @@
       <c r="J138" s="53"/>
       <c r="K138" s="53"/>
     </row>
-    <row r="139" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="60"/>
       <c r="B139" s="61" t="s">
         <v>244</v>
@@ -7007,7 +7009,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="58">
         <f>EDATE(A137,1)</f>
         <v>38322</v>
@@ -7032,7 +7034,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="54"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="64" t="s">
         <v>333</v>
       </c>
@@ -7050,7 +7052,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="54"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A140,1)</f>
         <v>38353</v>
@@ -7077,7 +7079,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>54</v>
@@ -7094,7 +7096,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>334</v>
@@ -7111,7 +7113,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f>EDATE(A142,1)</f>
         <v>38384</v>
@@ -7136,7 +7138,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f t="shared" ref="A146:A153" si="7">EDATE(A145,1)</f>
         <v>38412</v>
@@ -7161,7 +7163,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -7186,7 +7188,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f t="shared" si="7"/>
         <v>38473</v>
@@ -7213,7 +7215,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>240</v>
@@ -7230,7 +7232,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f>EDATE(A148,1)</f>
         <v>38504</v>
@@ -7255,7 +7257,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -7280,7 +7282,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -7305,7 +7307,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -7332,7 +7334,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>61</v>
@@ -7351,7 +7353,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>342</v>
@@ -7368,7 +7370,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f>EDATE(A153,1)</f>
         <v>38626</v>
@@ -7395,7 +7397,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>249</v>
@@ -7417,7 +7419,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f>EDATE(A156,1)</f>
         <v>38657</v>
@@ -7442,7 +7444,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>38687</v>
@@ -7467,7 +7469,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>61</v>
@@ -7489,7 +7491,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>345</v>
@@ -7509,7 +7511,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="47" t="s">
         <v>43</v>
       </c>
@@ -7531,7 +7533,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38718</v>
       </c>
@@ -7555,7 +7557,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38749</v>
       </c>
@@ -7579,7 +7581,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38777</v>
       </c>
@@ -7599,7 +7601,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38808</v>
       </c>
@@ -7623,7 +7625,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>54</v>
@@ -7643,7 +7645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>54</v>
@@ -7663,7 +7665,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>54</v>
@@ -7683,7 +7685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38838</v>
       </c>
@@ -7707,7 +7709,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38869</v>
       </c>
@@ -7731,7 +7733,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38899</v>
       </c>
@@ -7755,7 +7757,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38930</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>62</v>
@@ -7801,7 +7803,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>38961</v>
       </c>
@@ -7825,7 +7827,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38991</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>64</v>
@@ -7871,7 +7873,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39022</v>
       </c>
@@ -7895,7 +7897,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39052</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>67</v>
@@ -7941,7 +7943,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
         <v>44</v>
       </c>
@@ -7963,7 +7965,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39083</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39114</v>
       </c>
@@ -8013,7 +8015,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>71</v>
@@ -8033,7 +8035,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39142</v>
       </c>
@@ -8059,7 +8061,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>54</v>
@@ -8079,7 +8081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>72</v>
@@ -8099,7 +8101,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39173</v>
       </c>
@@ -8123,7 +8125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>54</v>
@@ -8143,7 +8145,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>73</v>
@@ -8163,7 +8165,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39203</v>
       </c>
@@ -8187,7 +8189,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39234</v>
       </c>
@@ -8211,7 +8213,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39264</v>
       </c>
@@ -8235,7 +8237,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39295</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>78</v>
@@ -8281,7 +8283,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39326</v>
       </c>
@@ -8305,7 +8307,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39356</v>
       </c>
@@ -8329,7 +8331,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39387</v>
       </c>
@@ -8355,7 +8357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>81</v>
@@ -8375,7 +8377,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39417</v>
       </c>
@@ -8399,7 +8401,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>82</v>
@@ -8419,7 +8421,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>45</v>
       </c>
@@ -8441,7 +8443,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39448</v>
       </c>
@@ -8465,7 +8467,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>87</v>
@@ -8485,7 +8487,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>39479</v>
       </c>
@@ -8509,7 +8511,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39508</v>
       </c>
@@ -8533,7 +8535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>54</v>
@@ -8553,7 +8555,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>92</v>
@@ -8573,7 +8575,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39539</v>
       </c>
@@ -8593,7 +8595,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39569</v>
       </c>
@@ -8617,7 +8619,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39600</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>95</v>
@@ -8663,7 +8665,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39630</v>
       </c>
@@ -8683,7 +8685,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39661</v>
       </c>
@@ -8707,7 +8709,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>39692</v>
       </c>
@@ -8731,7 +8733,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39722</v>
       </c>
@@ -8755,7 +8757,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39753</v>
       </c>
@@ -8779,7 +8781,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39783</v>
       </c>
@@ -8803,7 +8805,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>101</v>
@@ -8823,7 +8825,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="47" t="s">
         <v>46</v>
       </c>
@@ -8845,7 +8847,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39814</v>
       </c>
@@ -8869,7 +8871,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39845</v>
       </c>
@@ -8893,7 +8895,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39873</v>
       </c>
@@ -8917,7 +8919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39904</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39934</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>54</v>
@@ -8987,7 +8989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39965</v>
       </c>
@@ -9007,7 +9009,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39995</v>
       </c>
@@ -9027,7 +9029,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40026</v>
       </c>
@@ -9047,7 +9049,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>40057</v>
       </c>
@@ -9073,7 +9075,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40087</v>
       </c>
@@ -9093,7 +9095,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>40118</v>
       </c>
@@ -9119,7 +9121,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40148</v>
       </c>
@@ -9143,7 +9145,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="47" t="s">
         <v>47</v>
       </c>
@@ -9165,7 +9167,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40179</v>
       </c>
@@ -9185,7 +9187,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>40210</v>
       </c>
@@ -9205,7 +9207,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40238</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>40269</v>
       </c>
@@ -9249,7 +9251,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>40299</v>
       </c>
@@ -9273,7 +9275,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>40330</v>
       </c>
@@ -9295,7 +9297,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40360</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>94</v>
@@ -9341,7 +9343,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>54</v>
@@ -9359,7 +9361,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>40391</v>
       </c>
@@ -9385,7 +9387,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>40422</v>
       </c>
@@ -9411,7 +9413,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>94</v>
@@ -9433,7 +9435,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>117</v>
@@ -9453,7 +9455,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>40452</v>
       </c>
@@ -9479,7 +9481,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>118</v>
@@ -9497,7 +9499,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>40483</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>109</v>
@@ -9545,7 +9547,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>116</v>
@@ -9565,7 +9567,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>40513</v>
       </c>
@@ -9589,7 +9591,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="47" t="s">
         <v>48</v>
       </c>
@@ -9611,7 +9613,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>40544</v>
       </c>
@@ -9635,7 +9637,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>40575</v>
       </c>
@@ -9659,7 +9661,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>40603</v>
       </c>
@@ -9683,7 +9685,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>40634</v>
       </c>
@@ -9707,7 +9709,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>94</v>
@@ -9729,7 +9731,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40664</v>
       </c>
@@ -9753,7 +9755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>124</v>
@@ -9773,7 +9775,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40695</v>
       </c>
@@ -9799,7 +9801,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40725</v>
       </c>
@@ -9825,7 +9827,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40756</v>
       </c>
@@ -9851,7 +9853,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40787</v>
       </c>
@@ -9875,7 +9877,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40817</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>132</v>
@@ -9921,7 +9923,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40848</v>
       </c>
@@ -9945,7 +9947,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40878</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>134</v>
@@ -9991,7 +9993,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="47" t="s">
         <v>49</v>
       </c>
@@ -10013,7 +10015,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40909</v>
       </c>
@@ -10039,7 +10041,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>54</v>
@@ -10059,7 +10061,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>139</v>
@@ -10079,7 +10081,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>40940</v>
       </c>
@@ -10103,7 +10105,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40969</v>
       </c>
@@ -10129,7 +10131,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>141</v>
@@ -10149,7 +10151,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>41000</v>
       </c>
@@ -10175,7 +10177,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>54</v>
@@ -10195,7 +10197,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>142</v>
@@ -10215,7 +10217,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>41030</v>
       </c>
@@ -10239,7 +10241,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>41061</v>
       </c>
@@ -10263,7 +10265,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>41091</v>
       </c>
@@ -10287,7 +10289,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>41122</v>
       </c>
@@ -10311,7 +10313,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>41153</v>
       </c>
@@ -10335,7 +10337,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>41183</v>
       </c>
@@ -10359,7 +10361,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>41214</v>
       </c>
@@ -10383,7 +10385,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>41244</v>
       </c>
@@ -10409,7 +10411,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>151</v>
@@ -10429,7 +10431,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="47" t="s">
         <v>50</v>
       </c>
@@ -10451,7 +10453,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>41275</v>
       </c>
@@ -10473,7 +10475,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>157</v>
@@ -10493,7 +10495,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>41306</v>
       </c>
@@ -10513,7 +10515,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>41334</v>
       </c>
@@ -10539,7 +10541,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>54</v>
@@ -10559,7 +10561,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>54</v>
@@ -10579,7 +10581,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>41365</v>
       </c>
@@ -10603,7 +10605,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41395</v>
       </c>
@@ -10627,7 +10629,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>41426</v>
       </c>
@@ -10651,7 +10653,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41456</v>
       </c>
@@ -10675,7 +10677,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>41487</v>
       </c>
@@ -10699,7 +10701,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>41518</v>
       </c>
@@ -10725,7 +10727,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41548</v>
       </c>
@@ -10749,7 +10751,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>41579</v>
       </c>
@@ -10775,7 +10777,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>168</v>
@@ -10795,7 +10797,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>41609</v>
       </c>
@@ -10821,7 +10823,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>109</v>
@@ -10838,7 +10840,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>169</v>
@@ -10858,7 +10860,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="47" t="s">
         <v>153</v>
       </c>
@@ -10880,7 +10882,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41640</v>
       </c>
@@ -10904,7 +10906,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41671</v>
       </c>
@@ -10930,7 +10932,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>172</v>
@@ -10950,7 +10952,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>41699</v>
       </c>
@@ -10970,7 +10972,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41730</v>
       </c>
@@ -10994,7 +10996,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41760</v>
       </c>
@@ -11018,7 +11020,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>41791</v>
       </c>
@@ -11042,7 +11044,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>175</v>
@@ -11062,7 +11064,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41821</v>
       </c>
@@ -11086,7 +11088,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41852</v>
       </c>
@@ -11110,7 +11112,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>41883</v>
       </c>
@@ -11136,7 +11138,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>178</v>
@@ -11156,7 +11158,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>41913</v>
       </c>
@@ -11182,7 +11184,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>54</v>
@@ -11202,7 +11204,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>182</v>
@@ -11222,7 +11224,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>41944</v>
       </c>
@@ -11246,7 +11248,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41974</v>
       </c>
@@ -11272,7 +11274,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>94</v>
@@ -11294,7 +11296,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>188</v>
@@ -11314,7 +11316,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="49"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="47" t="s">
         <v>154</v>
       </c>
@@ -11336,7 +11338,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>42005</v>
       </c>
@@ -11360,7 +11362,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>42036</v>
       </c>
@@ -11384,7 +11386,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>189</v>
@@ -11404,7 +11406,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>42064</v>
       </c>
@@ -11424,7 +11426,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>42095</v>
       </c>
@@ -11448,7 +11450,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>42125</v>
       </c>
@@ -11472,7 +11474,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>42156</v>
       </c>
@@ -11492,7 +11494,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>42186</v>
       </c>
@@ -11512,7 +11514,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>42217</v>
       </c>
@@ -11536,7 +11538,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>42248</v>
       </c>
@@ -11560,7 +11562,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>42278</v>
       </c>
@@ -11588,7 +11590,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>42309</v>
       </c>
@@ -11614,7 +11616,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>195</v>
@@ -11636,7 +11638,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>42339</v>
       </c>
@@ -11660,7 +11662,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="47" t="s">
         <v>155</v>
       </c>
@@ -11682,7 +11684,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>42370</v>
       </c>
@@ -11706,7 +11708,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>42401</v>
       </c>
@@ -11726,7 +11728,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>42430</v>
       </c>
@@ -11746,7 +11748,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>42461</v>
       </c>
@@ -11770,7 +11772,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>42491</v>
       </c>
@@ -11794,7 +11796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>201</v>
@@ -11814,7 +11816,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>42522</v>
       </c>
@@ -11838,7 +11840,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>42552</v>
       </c>
@@ -11858,7 +11860,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42583</v>
       </c>
@@ -11882,7 +11884,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>42614</v>
       </c>
@@ -11906,7 +11908,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>94</v>
@@ -11928,7 +11930,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>54</v>
@@ -11948,7 +11950,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>203</v>
@@ -11968,7 +11970,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>42644</v>
       </c>
@@ -11988,7 +11990,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>42675</v>
       </c>
@@ -12012,7 +12014,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>42705</v>
       </c>
@@ -12036,7 +12038,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>205</v>
@@ -12058,7 +12060,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>96</v>
@@ -12078,7 +12080,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="47" t="s">
         <v>156</v>
       </c>
@@ -12100,7 +12102,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>42736</v>
       </c>
@@ -12122,7 +12124,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>212</v>
@@ -12148,7 +12150,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>42767</v>
       </c>
@@ -12172,7 +12174,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>42795</v>
       </c>
@@ -12196,7 +12198,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42826</v>
       </c>
@@ -12216,7 +12218,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>42856</v>
       </c>
@@ -12236,7 +12238,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>42887</v>
       </c>
@@ -12256,7 +12258,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>42917</v>
       </c>
@@ -12276,7 +12278,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>42948</v>
       </c>
@@ -12300,7 +12302,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>42979</v>
       </c>
@@ -12320,7 +12322,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>43009</v>
       </c>
@@ -12340,7 +12342,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>43040</v>
       </c>
@@ -12366,7 +12368,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>43070</v>
       </c>
@@ -12390,7 +12392,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="47" t="s">
         <v>209</v>
       </c>
@@ -12412,7 +12414,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>43101</v>
       </c>
@@ -12432,7 +12434,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>43132</v>
       </c>
@@ -12452,7 +12454,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>43160</v>
       </c>
@@ -12476,7 +12478,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>43191</v>
       </c>
@@ -12496,7 +12498,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43221</v>
       </c>
@@ -12520,7 +12522,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>94</v>
@@ -12546,7 +12548,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>43252</v>
       </c>
@@ -12572,7 +12574,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>104</v>
@@ -12598,7 +12600,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>177</v>
@@ -12618,7 +12620,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43282</v>
       </c>
@@ -12638,7 +12640,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43313</v>
       </c>
@@ -12658,7 +12660,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43344</v>
       </c>
@@ -12684,7 +12686,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>43374</v>
       </c>
@@ -12708,7 +12710,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>43405</v>
       </c>
@@ -12728,7 +12730,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43435</v>
       </c>
@@ -12754,7 +12756,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>220</v>
@@ -12776,7 +12778,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>61</v>
@@ -12796,7 +12798,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>221</v>
@@ -12816,7 +12818,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
         <v>210</v>
       </c>
@@ -12838,7 +12840,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>43466</v>
       </c>
@@ -12864,7 +12866,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>104</v>
@@ -12886,7 +12888,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>94</v>
@@ -12908,7 +12910,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>54</v>
@@ -12928,7 +12930,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -12944,7 +12946,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>43497</v>
       </c>
@@ -12964,7 +12966,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>43525</v>
       </c>
@@ -12990,7 +12992,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>104</v>
@@ -13012,7 +13014,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>229</v>
@@ -13034,7 +13036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>94</v>
@@ -13056,7 +13058,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43556</v>
       </c>
@@ -13082,7 +13084,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43586</v>
       </c>
@@ -13106,7 +13108,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43617</v>
       </c>
@@ -13126,7 +13128,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>43647</v>
       </c>
@@ -13146,7 +13148,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>43678</v>
       </c>
@@ -13166,7 +13168,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>43709</v>
       </c>
@@ -13192,7 +13194,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43739</v>
       </c>
@@ -13212,7 +13214,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43770</v>
       </c>
@@ -13232,7 +13234,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>43800</v>
       </c>
@@ -13262,7 +13264,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
         <v>211</v>
       </c>
@@ -13284,7 +13286,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>43831</v>
       </c>
@@ -13304,7 +13306,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43862</v>
       </c>
@@ -13324,7 +13326,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>43891</v>
       </c>
@@ -13344,7 +13346,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>43922</v>
       </c>
@@ -13364,7 +13366,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43952</v>
       </c>
@@ -13384,7 +13386,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>43983</v>
       </c>
@@ -13408,7 +13410,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44013</v>
       </c>
@@ -13428,7 +13430,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>44044</v>
       </c>
@@ -13448,7 +13450,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44075</v>
       </c>
@@ -13474,7 +13476,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44105</v>
       </c>
@@ -13494,7 +13496,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>44136</v>
       </c>
@@ -13514,7 +13516,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44166</v>
       </c>
@@ -13534,7 +13536,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="47" t="s">
         <v>346</v>
       </c>
@@ -13552,7 +13554,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A428,1)</f>
         <v>44197</v>
@@ -13573,9 +13575,9 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <f t="shared" ref="A431:A463" si="8">EDATE(A430,1)</f>
+        <f t="shared" ref="A431:A469" si="8">EDATE(A430,1)</f>
         <v>44228</v>
       </c>
       <c r="B431" s="20"/>
@@ -13594,7 +13596,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f t="shared" si="8"/>
         <v>44256</v>
@@ -13615,7 +13617,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" si="8"/>
         <v>44287</v>
@@ -13636,7 +13638,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f t="shared" si="8"/>
         <v>44317</v>
@@ -13657,7 +13659,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="8"/>
         <v>44348</v>
@@ -13678,7 +13680,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="8"/>
         <v>44378</v>
@@ -13699,7 +13701,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f t="shared" si="8"/>
         <v>44409</v>
@@ -13720,7 +13722,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f t="shared" si="8"/>
         <v>44440</v>
@@ -13741,7 +13743,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f t="shared" si="8"/>
         <v>44470</v>
@@ -13762,7 +13764,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f t="shared" si="8"/>
         <v>44501</v>
@@ -13783,7 +13785,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f t="shared" si="8"/>
         <v>44531</v>
@@ -13808,7 +13810,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="47" t="s">
         <v>347</v>
       </c>
@@ -13826,7 +13828,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A441,1)</f>
         <v>44562</v>
@@ -13847,7 +13849,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="8"/>
         <v>44593</v>
@@ -13868,7 +13870,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" si="8"/>
         <v>44621</v>
@@ -13889,7 +13891,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="8"/>
         <v>44652</v>
@@ -13910,7 +13912,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="8"/>
         <v>44682</v>
@@ -13920,10 +13922,7 @@
         <v>1.25</v>
       </c>
       <c r="D447" s="39"/>
-      <c r="E447" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E447" s="9"/>
       <c r="F447" s="20"/>
       <c r="G447" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -13934,7 +13933,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f t="shared" si="8"/>
         <v>44713</v>
@@ -13944,10 +13943,7 @@
         <v>1.25</v>
       </c>
       <c r="D448" s="42"/>
-      <c r="E448" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E448" s="9"/>
       <c r="F448" s="20"/>
       <c r="G448" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -13958,7 +13954,7 @@
       <c r="J448" s="12"/>
       <c r="K448" s="15"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="8"/>
         <v>44743</v>
@@ -13968,10 +13964,7 @@
         <v>1.25</v>
       </c>
       <c r="D449" s="39"/>
-      <c r="E449" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E449" s="9"/>
       <c r="F449" s="20"/>
       <c r="G449" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -13982,7 +13975,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="8"/>
         <v>44774</v>
@@ -13992,10 +13985,7 @@
         <v>1.25</v>
       </c>
       <c r="D450" s="39"/>
-      <c r="E450" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E450" s="9"/>
       <c r="F450" s="20"/>
       <c r="G450" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14006,7 +13996,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="8"/>
         <v>44805</v>
@@ -14016,10 +14006,7 @@
         <v>1.25</v>
       </c>
       <c r="D451" s="39"/>
-      <c r="E451" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E451" s="9"/>
       <c r="F451" s="20"/>
       <c r="G451" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14030,7 +14017,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="8"/>
         <v>44835</v>
@@ -14040,10 +14027,7 @@
         <v>1.25</v>
       </c>
       <c r="D452" s="39"/>
-      <c r="E452" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E452" s="9"/>
       <c r="F452" s="20"/>
       <c r="G452" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14054,7 +14038,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f t="shared" si="8"/>
         <v>44866</v>
@@ -14064,10 +14048,7 @@
         <v>1.25</v>
       </c>
       <c r="D453" s="39"/>
-      <c r="E453" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E453" s="9"/>
       <c r="F453" s="20"/>
       <c r="G453" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14078,7 +14059,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f t="shared" si="8"/>
         <v>44896</v>
@@ -14092,10 +14073,7 @@
       <c r="D454" s="39">
         <v>5</v>
       </c>
-      <c r="E454" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E454" s="9"/>
       <c r="F454" s="20"/>
       <c r="G454" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14106,17 +14084,14 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="47" t="s">
         <v>348</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
       <c r="D455" s="39"/>
-      <c r="E455" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E455" s="9"/>
       <c r="F455" s="20"/>
       <c r="G455" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14127,7 +14102,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <f>EDATE(A454,1)</f>
         <v>44927</v>
@@ -14137,10 +14112,7 @@
         <v>1.25</v>
       </c>
       <c r="D456" s="39"/>
-      <c r="E456" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E456" s="9"/>
       <c r="F456" s="20"/>
       <c r="G456" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14151,7 +14123,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f t="shared" si="8"/>
         <v>44958</v>
@@ -14161,10 +14133,7 @@
         <v>1.25</v>
       </c>
       <c r="D457" s="39"/>
-      <c r="E457" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E457" s="9"/>
       <c r="F457" s="20"/>
       <c r="G457" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14175,7 +14144,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" si="8"/>
         <v>44986</v>
@@ -14185,10 +14154,7 @@
         <v>1.25</v>
       </c>
       <c r="D458" s="39"/>
-      <c r="E458" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E458" s="9"/>
       <c r="F458" s="20"/>
       <c r="G458" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14199,7 +14165,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="8"/>
         <v>45017</v>
@@ -14209,10 +14175,7 @@
         <v>1.25</v>
       </c>
       <c r="D459" s="39"/>
-      <c r="E459" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E459" s="9"/>
       <c r="F459" s="20"/>
       <c r="G459" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14223,7 +14186,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="8"/>
         <v>45047</v>
@@ -14235,10 +14198,7 @@
         <v>1.25</v>
       </c>
       <c r="D460" s="39"/>
-      <c r="E460" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E460" s="9"/>
       <c r="F460" s="20"/>
       <c r="G460" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -14247,11 +14207,11 @@
       <c r="H460" s="39"/>
       <c r="I460" s="9"/>
       <c r="J460" s="11"/>
-      <c r="K460" s="78">
+      <c r="K460" s="66">
         <v>45063</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>131</v>
@@ -14269,53 +14229,186 @@
       </c>
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="78" t="s">
+      <c r="K461" s="66" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f>EDATE(A460,1)</f>
         <v>45078</v>
       </c>
       <c r="B462" s="20"/>
-      <c r="C462" s="13"/>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D462" s="39"/>
-      <c r="E462" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E462" s="9"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H462" s="39"/>
       <c r="I462" s="9"/>
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f t="shared" si="8"/>
         <v>45108</v>
       </c>
       <c r="B463" s="20"/>
-      <c r="C463" s="13"/>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D463" s="39"/>
-      <c r="E463" s="9">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.308999999999912</v>
-      </c>
+      <c r="E463" s="9"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H463" s="39"/>
       <c r="I463" s="9"/>
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="40">
+        <f t="shared" si="8"/>
+        <v>45139</v>
+      </c>
+      <c r="B464" s="20"/>
+      <c r="C464" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D464" s="48"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H464" s="39"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="20"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="40">
+        <f t="shared" si="8"/>
+        <v>45170</v>
+      </c>
+      <c r="B465" s="20"/>
+      <c r="C465" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D465" s="48"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H465" s="39"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="20"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="40">
+        <f t="shared" si="8"/>
+        <v>45200</v>
+      </c>
+      <c r="B466" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D466" s="48">
+        <v>4</v>
+      </c>
+      <c r="E466" s="9"/>
+      <c r="F466" s="20"/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H466" s="39"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="11"/>
+      <c r="K466" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" s="40"/>
+      <c r="B467" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C467" s="13"/>
+      <c r="D467" s="48"/>
+      <c r="E467" s="9"/>
+      <c r="F467" s="20"/>
+      <c r="G467" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H467" s="39">
+        <v>1</v>
+      </c>
+      <c r="I467" s="9"/>
+      <c r="J467" s="11"/>
+      <c r="K467" s="66">
+        <v>45230</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" s="40">
+        <f>EDATE(A466,1)</f>
+        <v>45231</v>
+      </c>
+      <c r="B468" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C468" s="13"/>
+      <c r="D468" s="48"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="20"/>
+      <c r="G468" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H468" s="39">
+        <v>1</v>
+      </c>
+      <c r="I468" s="9"/>
+      <c r="J468" s="11"/>
+      <c r="K468" s="66">
+        <v>45233</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469" s="40">
+        <f t="shared" si="8"/>
+        <v>45261</v>
+      </c>
+      <c r="B469" s="20"/>
+      <c r="C469" s="13"/>
+      <c r="D469" s="48"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H469" s="39"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14332,10 +14425,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14361,7 +14454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14369,34 +14462,34 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="76" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="J1" s="77" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="J1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14425,7 +14518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -14451,14 +14544,14 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>0</v>
       </c>
@@ -14467,7 +14560,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14481,14 +14574,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14515,7 +14608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14541,7 +14634,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14567,7 +14660,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14593,7 +14686,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14619,7 +14712,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14645,7 +14738,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14671,7 +14764,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14697,7 +14790,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14717,7 +14810,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14737,7 +14830,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14757,7 +14850,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14778,7 +14871,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14799,7 +14892,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14820,7 +14913,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14841,7 +14934,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14862,7 +14955,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14883,7 +14976,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14904,7 +14997,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14925,7 +15018,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14946,7 +15039,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14967,7 +15060,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14988,7 +15081,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15009,7 +15102,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15030,7 +15123,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15051,7 +15144,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15072,7 +15165,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15093,7 +15186,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15114,7 +15207,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15135,7 +15228,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15156,7 +15249,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15177,7 +15270,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15186,7 +15279,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15195,7 +15288,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15204,7 +15297,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15213,7 +15306,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15222,7 +15315,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15231,7 +15324,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15240,7 +15333,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15249,7 +15342,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15258,7 +15351,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15267,7 +15360,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15276,7 +15369,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15285,7 +15378,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15294,7 +15387,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15303,7 +15396,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15312,7 +15405,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15321,7 +15414,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15330,7 +15423,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15339,7 +15432,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15348,7 +15441,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15357,7 +15450,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15366,7 +15459,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15375,7 +15468,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15384,7 +15477,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15393,7 +15486,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15402,7 +15495,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15411,7 +15504,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15420,7 +15513,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15429,7 +15522,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15438,7 +15531,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
